--- a/Muting Rules.xlsx
+++ b/Muting Rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeversmeyer\Muting Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://2ndwatch-my.sharepoint.com/personal/aeversmeyer_2ndwatch_com/Documents/Documents/Tooling/NR Muting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDEF409-76FC-4A6C-9AD2-28A36C44CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="717" documentId="8_{F3C4CCFD-D3A3-4A0C-A232-E9C71F11B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0463F129-B798-4DF9-9E3B-A1CA3351B187}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="2310" windowWidth="37680" windowHeight="16840" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
+    <workbookView xWindow="470" yWindow="1700" windowWidth="37680" windowHeight="16840" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="197">
   <si>
     <t>Environment</t>
   </si>
@@ -197,21 +197,6 @@
     <t>linux instances patched quarterly, same tag</t>
   </si>
   <si>
-    <t>NP ECS</t>
-  </si>
-  <si>
-    <t>NP App, IIS, SQL grp 3</t>
-  </si>
-  <si>
-    <t>Prod Azure</t>
-  </si>
-  <si>
-    <t>Prod App, IIS, SQL grp 3</t>
-  </si>
-  <si>
-    <t>Prod ECS</t>
-  </si>
-  <si>
     <t>Prod_ECS_Group_1</t>
   </si>
   <si>
@@ -266,18 +251,6 @@
     <t>Prod_SQL_Group_3</t>
   </si>
   <si>
-    <t>Prod App, Infra, SQL grp 1</t>
-  </si>
-  <si>
-    <t>Prod App, Infra, SQL grp 2</t>
-  </si>
-  <si>
-    <t>NP App, SQL grp 1</t>
-  </si>
-  <si>
-    <t>NP App, SQL grp 2</t>
-  </si>
-  <si>
     <t>prod-linux</t>
   </si>
   <si>
@@ -398,9 +371,6 @@
     <t>Cypherworx</t>
   </si>
   <si>
-    <t>GreenFirst Forest Products</t>
-  </si>
-  <si>
     <t>CKE Restaurants</t>
   </si>
   <si>
@@ -627,6 +597,36 @@
   </si>
   <si>
     <t>Prod_Linux_Quarterly-M1_Thur-W3</t>
+  </si>
+  <si>
+    <t>Non-Prod -Infra and SQL group2</t>
+  </si>
+  <si>
+    <t>Non-Prod -App, IIS and SQL group3</t>
+  </si>
+  <si>
+    <t>Non-Prod - ECS</t>
+  </si>
+  <si>
+    <t>Prod -App, IIS and SQL group3</t>
+  </si>
+  <si>
+    <t>Prod - App,Prod-Infra Group 1, and SQL group1</t>
+  </si>
+  <si>
+    <t>Prod -App,Prod -Infra Group 2, and SQL group2</t>
+  </si>
+  <si>
+    <t>Prod - Azure</t>
+  </si>
+  <si>
+    <t>Prod - ECS</t>
+  </si>
+  <si>
+    <t>Non-Prod - App and SQL group1</t>
+  </si>
+  <si>
+    <t>GreenFirst Forsest Products</t>
   </si>
 </sst>
 </file>
@@ -762,6 +762,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,14 +1067,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344475A-C7FB-4B36-9EFD-5513E556E893}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
     <col min="3" max="3" width="20.90625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="35.36328125" customWidth="1"/>
@@ -1097,40 +1101,40 @@
         <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -1138,7 +1142,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>31</v>
@@ -1147,17 +1151,17 @@
         <v>7</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L2" s="11">
         <v>38494683</v>
@@ -1167,7 +1171,7 @@
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -1175,7 +1179,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>31</v>
@@ -1184,17 +1188,17 @@
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L3" s="11">
         <v>38494726</v>
@@ -1204,7 +1208,7 @@
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1212,7 +1216,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>31</v>
@@ -1221,17 +1225,17 @@
         <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L4" s="11">
         <v>38494771</v>
@@ -1241,7 +1245,7 @@
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1249,7 +1253,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
@@ -1258,17 +1262,17 @@
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L5" s="11">
         <v>38494810</v>
@@ -1278,7 +1282,7 @@
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1286,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>31</v>
@@ -1295,17 +1299,17 @@
         <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L6" s="11">
         <v>38494883</v>
@@ -1315,7 +1319,7 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -1323,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
@@ -1332,17 +1336,17 @@
         <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L7" s="11">
         <v>38494924</v>
@@ -1352,7 +1356,7 @@
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1360,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
@@ -1369,17 +1373,17 @@
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L8" s="11">
         <v>38494972</v>
@@ -1389,7 +1393,7 @@
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1397,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
@@ -1406,17 +1410,17 @@
         <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L9" s="11">
         <v>38495019</v>
@@ -1426,7 +1430,7 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1434,7 +1438,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -1455,7 +1459,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -1473,17 +1477,17 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1502,17 +1506,17 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1534,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1543,13 +1547,13 @@
         <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1568,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1577,10 +1581,10 @@
         <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1600,7 +1604,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1609,10 +1613,10 @@
         <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L16" s="2">
         <v>38491476</v>
@@ -1627,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1636,7 +1640,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1657,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1666,13 +1670,13 @@
         <v>34</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1691,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -1700,13 +1704,13 @@
         <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1725,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1734,13 +1738,13 @@
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1759,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1768,7 +1772,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L21" s="2">
         <v>38491356</v>
@@ -1777,7 +1781,7 @@
         <v>2622938</v>
       </c>
       <c r="N21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -1785,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -1794,7 +1798,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1815,7 +1819,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
@@ -1844,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
@@ -1870,10 +1874,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -1891,10 +1895,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
@@ -1915,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
@@ -1944,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
@@ -1973,7 +1977,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -1994,7 +1998,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -2012,10 +2016,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -2037,18 +2041,18 @@
         <v>3169165</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
@@ -2070,27 +2074,27 @@
         <v>3169165</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L33" s="2">
         <v>38495239</v>
@@ -2102,19 +2106,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L34" s="2">
         <v>38495273</v>
@@ -2126,25 +2130,25 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L35" s="2">
         <v>38495325</v>
@@ -2159,7 +2163,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
@@ -2190,7 +2194,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
@@ -2219,7 +2223,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
@@ -2236,7 +2240,7 @@
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
@@ -2259,19 +2263,19 @@
         <v>11</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -2285,10 +2289,10 @@
         <v>2709551</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -2296,19 +2300,19 @@
         <v>11</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2322,10 +2326,10 @@
         <v>2709551</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -2333,14 +2337,14 @@
         <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2353,7 +2357,7 @@
         <v>2726091</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O42" s="4"/>
     </row>
@@ -2369,7 +2373,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2382,7 +2386,7 @@
         <v>2726091</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O43" s="4"/>
     </row>
@@ -2391,14 +2395,14 @@
         <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2411,10 +2415,10 @@
         <v>2726091</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -2422,16 +2426,16 @@
         <v>21</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -2447,7 +2451,7 @@
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -2455,16 +2459,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -2480,7 +2484,7 @@
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -2488,16 +2492,16 @@
         <v>21</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -2513,7 +2517,7 @@
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -2521,16 +2525,16 @@
         <v>21</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -2546,7 +2550,7 @@
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -2554,16 +2558,16 @@
         <v>21</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -2579,7 +2583,7 @@
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -2587,7 +2591,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
@@ -2608,7 +2612,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
@@ -2629,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
@@ -2658,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10" t="s">
@@ -2687,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
@@ -2708,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
         <v>28</v>
@@ -2729,16 +2733,16 @@
         <v>24</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -2760,19 +2764,19 @@
         <v>24</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -2793,19 +2797,19 @@
         <v>12</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L58" s="2">
         <v>38493910</v>
@@ -2820,22 +2824,22 @@
         <v>12</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -2854,19 +2858,19 @@
         <v>12</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L60" s="2">
         <v>38493945</v>
@@ -2878,22 +2882,22 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -2903,71 +2907,71 @@
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="O61" s="10"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="N62" s="10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="O62" s="10"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="H63" s="10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -2975,7 +2979,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="O63" s="10"/>
     </row>
@@ -2984,7 +2988,7 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
         <v>34</v>
@@ -3005,7 +3009,7 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
         <v>34</v>
@@ -3023,10 +3027,10 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9" t="s">
@@ -3057,7 +3061,7 @@
         <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
@@ -3066,7 +3070,7 @@
         <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L67" s="2">
         <v>38507716</v>
@@ -3081,22 +3085,22 @@
         <v>18</v>
       </c>
       <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" t="s">
         <v>174</v>
-      </c>
-      <c r="C68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>179</v>
-      </c>
-      <c r="F68" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" t="s">
-        <v>184</v>
       </c>
       <c r="L68" s="2">
         <v>38507868</v>
@@ -3111,25 +3115,25 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" t="s">
+        <v>170</v>
+      </c>
+      <c r="F69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" t="s">
-        <v>180</v>
-      </c>
-      <c r="F69" t="s">
-        <v>185</v>
-      </c>
       <c r="G69" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H69" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L69" s="2">
         <v>38508121</v>
@@ -3144,7 +3148,7 @@
         <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -3153,16 +3157,16 @@
         <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F70" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G70" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H70" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L70" s="2">
         <v>38508566</v>
@@ -3177,7 +3181,7 @@
         <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
         <v>31</v>
@@ -3186,19 +3190,19 @@
         <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F71" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G71" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H71" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I71" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="L71" s="2">
         <v>38509129</v>
@@ -3213,7 +3217,7 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
         <v>31</v>
@@ -3222,7 +3226,7 @@
         <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="L72" s="2">
         <v>38509297</v>
@@ -3237,7 +3241,7 @@
         <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
         <v>31</v>
@@ -3246,7 +3250,7 @@
         <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="L73" s="2">
         <v>38509325</v>
@@ -3261,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
@@ -3282,19 +3286,15 @@
       <c r="M74" s="11">
         <v>2709547</v>
       </c>
-      <c r="N74" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O74" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
@@ -3315,19 +3315,15 @@
       <c r="M75" s="11">
         <v>2709547</v>
       </c>
-      <c r="N75" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O75" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
@@ -3348,19 +3344,15 @@
       <c r="M76" s="11">
         <v>2709547</v>
       </c>
-      <c r="N76" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O76" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
@@ -3381,12 +3373,8 @@
       <c r="M77" s="11">
         <v>2709547</v>
       </c>
-      <c r="N77" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O77" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>

--- a/Muting Rules.xlsx
+++ b/Muting Rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://2ndwatch-my.sharepoint.com/personal/aeversmeyer_2ndwatch_com/Documents/Documents/Tooling/NR Muting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeversmeyer\Muting Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="717" documentId="8_{F3C4CCFD-D3A3-4A0C-A232-E9C71F11B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0463F129-B798-4DF9-9E3B-A1CA3351B187}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE36F9-E0F5-4282-9724-65A2F3D874BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="470" yWindow="1700" windowWidth="37680" windowHeight="16840" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="198">
   <si>
     <t>Environment</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>GreenFirst Forsest Products</t>
+  </si>
+  <si>
+    <t>different times for same event</t>
   </si>
 </sst>
 </file>
@@ -762,10 +765,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344475A-C7FB-4B36-9EFD-5513E556E893}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2449,7 +2448,9 @@
       <c r="M45" s="11">
         <v>3446638</v>
       </c>
-      <c r="N45" s="10"/>
+      <c r="N45" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="O45" s="9" t="s">
         <v>103</v>
       </c>
@@ -2482,7 +2483,9 @@
       <c r="M46" s="11">
         <v>3446638</v>
       </c>
-      <c r="N46" s="10"/>
+      <c r="N46" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="O46" s="9" t="s">
         <v>103</v>
       </c>
@@ -2515,7 +2518,9 @@
       <c r="M47" s="11">
         <v>3446638</v>
       </c>
-      <c r="N47" s="10"/>
+      <c r="N47" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="O47" s="9" t="s">
         <v>103</v>
       </c>
@@ -2548,7 +2553,9 @@
       <c r="M48" s="11">
         <v>3446638</v>
       </c>
-      <c r="N48" s="10"/>
+      <c r="N48" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="O48" s="9" t="s">
         <v>103</v>
       </c>
@@ -2581,7 +2588,9 @@
       <c r="M49" s="11">
         <v>3446638</v>
       </c>
-      <c r="N49" s="10"/>
+      <c r="N49" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="O49" s="9" t="s">
         <v>103</v>
       </c>

--- a/Muting Rules.xlsx
+++ b/Muting Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeversmeyer\Muting Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE36F9-E0F5-4282-9724-65A2F3D874BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4BF75-411F-493F-84D0-8E69BC8A0499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="470" yWindow="1700" windowWidth="37680" windowHeight="16840" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="199">
   <si>
     <t>Environment</t>
   </si>
@@ -605,31 +605,34 @@
     <t>Non-Prod -App, IIS and SQL group3</t>
   </si>
   <si>
-    <t>Non-Prod - ECS</t>
-  </si>
-  <si>
     <t>Prod -App, IIS and SQL group3</t>
   </si>
   <si>
     <t>Prod - App,Prod-Infra Group 1, and SQL group1</t>
   </si>
   <si>
-    <t>Prod -App,Prod -Infra Group 2, and SQL group2</t>
-  </si>
-  <si>
-    <t>Prod - Azure</t>
-  </si>
-  <si>
-    <t>Prod - ECS</t>
-  </si>
-  <si>
     <t>Non-Prod - App and SQL group1</t>
   </si>
   <si>
     <t>GreenFirst Forsest Products</t>
   </si>
   <si>
-    <t>different times for same event</t>
+    <t>different times for same event: first hour</t>
+  </si>
+  <si>
+    <t>different times for same event: last three hours</t>
+  </si>
+  <si>
+    <t>Non-Prod  - ECS</t>
+  </si>
+  <si>
+    <t>Prod -App,Prod -Infra Group 2 and SQL group2</t>
+  </si>
+  <si>
+    <t>Prod  - Azure</t>
+  </si>
+  <si>
+    <t>Prod  - ECS</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344475A-C7FB-4B36-9EFD-5513E556E893}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45:N49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1571,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1630,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1660,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1694,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -1728,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1762,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1788,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -2015,7 +2018,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>99</v>
@@ -2048,7 +2051,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>97</v>
@@ -2449,7 +2452,7 @@
         <v>3446638</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O45" s="9" t="s">
         <v>103</v>
@@ -2484,7 +2487,7 @@
         <v>3446638</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O46" s="9" t="s">
         <v>103</v>
@@ -2519,7 +2522,7 @@
         <v>3446638</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>103</v>
@@ -2554,7 +2557,7 @@
         <v>3446638</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O48" s="9" t="s">
         <v>103</v>
@@ -2588,9 +2591,7 @@
       <c r="M49" s="11">
         <v>3446638</v>
       </c>
-      <c r="N49" s="10" t="s">
-        <v>197</v>
-      </c>
+      <c r="N49" s="10"/>
       <c r="O49" s="9" t="s">
         <v>103</v>
       </c>

--- a/Muting Rules.xlsx
+++ b/Muting Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeversmeyer\Muting Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4BF75-411F-493F-84D0-8E69BC8A0499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3B907D-3030-49D5-A79F-F1384C8FBE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="1700" windowWidth="37680" windowHeight="16840" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
+    <workbookView xWindow="500" yWindow="2290" windowWidth="37680" windowHeight="16840" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="202">
   <si>
     <t>Environment</t>
   </si>
@@ -633,6 +633,15 @@
   </si>
   <si>
     <t>Prod  - ECS</t>
+  </si>
+  <si>
+    <t>Verizon</t>
+  </si>
+  <si>
+    <t>Pre-Prod</t>
+  </si>
+  <si>
+    <t>ssm_Pre-Prod</t>
   </si>
 </sst>
 </file>
@@ -725,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -753,6 +762,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344475A-C7FB-4B36-9EFD-5513E556E893}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3037,365 +3051,446 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="11">
+        <v>39296621</v>
+      </c>
+      <c r="M66" s="11">
+        <v>2401533</v>
+      </c>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="11">
+        <v>39296642</v>
+      </c>
+      <c r="M67" s="11">
+        <v>2401533</v>
+      </c>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B68" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9" t="s">
+      <c r="C68" s="15"/>
+      <c r="D68" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E68" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="11">
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="16">
         <v>38422496</v>
       </c>
-      <c r="M66" s="11">
+      <c r="M68" s="16">
         <v>2739512</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N68" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O66" s="9"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+      <c r="O68" s="15"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C69" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="L67" s="2">
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="11">
         <v>38507716</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M69" s="11">
         <v>2671646</v>
       </c>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C70" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F70" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G70" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="L68" s="2">
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="11">
         <v>38507868</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M70" s="11">
         <v>2671646</v>
       </c>
-      <c r="N68"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C71" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F71" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G71" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H71" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L69" s="2">
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="11">
         <v>38508121</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M71" s="11">
         <v>2671646</v>
       </c>
-      <c r="N69"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C72" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F72" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G72" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H72" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="L70" s="2">
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11">
         <v>38508566</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M72" s="11">
         <v>2671646</v>
       </c>
-      <c r="N70"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C71" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C73" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F73" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G73" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H73" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I73" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="L71" s="2">
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="11">
         <v>38509129</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M73" s="11">
         <v>2671646</v>
       </c>
-      <c r="N71"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>124</v>
       </c>
-      <c r="C72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
         <v>185</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L74" s="2">
         <v>38509297</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M74" s="2">
         <v>2671646</v>
       </c>
-      <c r="N72"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>163</v>
       </c>
-      <c r="C73" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" t="s">
         <v>186</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L75" s="2">
         <v>38509325</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M75" s="2">
         <v>2671646</v>
       </c>
-      <c r="N73"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="9" t="s">
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B76" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" s="10" t="s">
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="11">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="16">
         <v>38456369</v>
       </c>
-      <c r="M74" s="11">
+      <c r="M76" s="16">
         <v>2709547</v>
       </c>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="9" t="s">
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B77" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="10" t="s">
+      <c r="C77" s="17"/>
+      <c r="D77" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="11">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="16">
         <v>38456394</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M77" s="16">
         <v>2709547</v>
       </c>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="9" t="s">
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B78" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="11">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="16">
         <v>38456301</v>
       </c>
-      <c r="M76" s="11">
+      <c r="M78" s="16">
         <v>2709547</v>
       </c>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="9" t="s">
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B79" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="11">
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="16">
         <v>38456341</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M79" s="16">
         <v>2709547</v>
       </c>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="14"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="14"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O82">
-    <sortCondition ref="A2:A82"/>
-    <sortCondition ref="B2:B82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O84">
+    <sortCondition ref="A2:A84"/>
+    <sortCondition ref="B2:B84"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Muting Rules.xlsx
+++ b/Muting Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeversmeyer\Muting Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeversmeyer\Python\2w-patching-daily-muting-check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3B907D-3030-49D5-A79F-F1384C8FBE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C114BF70-AEDE-479A-BC6F-A70B4A3C310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="2290" windowWidth="37680" windowHeight="16840" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
+    <workbookView xWindow="38910" yWindow="890" windowWidth="36820" windowHeight="19540" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="199">
   <si>
     <t>Environment</t>
   </si>
@@ -107,9 +107,6 @@
     <t>eTurns</t>
   </si>
   <si>
-    <t>Badger Meter</t>
-  </si>
-  <si>
     <t>Securitas</t>
   </si>
   <si>
@@ -170,12 +167,6 @@
     <t>ssm_Prod</t>
   </si>
   <si>
-    <t>SSM_Stage_PatchEvent</t>
-  </si>
-  <si>
-    <t>SSM_Prod_PatchEvent</t>
-  </si>
-  <si>
     <t>ssm_Cypherworx_Non-Prod</t>
   </si>
   <si>
@@ -362,9 +353,6 @@
     <t>4th Sunday</t>
   </si>
   <si>
-    <t>Prod windows</t>
-  </si>
-  <si>
     <t>International Medical Group</t>
   </si>
   <si>
@@ -642,6 +630,9 @@
   </si>
   <si>
     <t>ssm_Pre-Prod</t>
+  </si>
+  <si>
+    <t>Prod All</t>
   </si>
 </sst>
 </file>
@@ -734,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -762,11 +753,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344475A-C7FB-4B36-9EFD-5513E556E893}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,43 +1100,43 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -1158,26 +1144,26 @@
         <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L2" s="11">
         <v>38494683</v>
@@ -1187,7 +1173,7 @@
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -1195,26 +1181,26 @@
         <v>19</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L3" s="11">
         <v>38494726</v>
@@ -1224,7 +1210,7 @@
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1232,26 +1218,26 @@
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L4" s="11">
         <v>38494771</v>
@@ -1261,7 +1247,7 @@
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1269,26 +1255,26 @@
         <v>19</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L5" s="11">
         <v>38494810</v>
@@ -1298,7 +1284,7 @@
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1306,26 +1292,26 @@
         <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L6" s="11">
         <v>38494883</v>
@@ -1335,7 +1321,7 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -1343,26 +1329,26 @@
         <v>19</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L7" s="11">
         <v>38494924</v>
@@ -1372,7 +1358,7 @@
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1380,26 +1366,26 @@
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L8" s="11">
         <v>38494972</v>
@@ -1409,7 +1395,7 @@
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1417,26 +1403,26 @@
         <v>19</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L9" s="11">
         <v>38495019</v>
@@ -1446,137 +1432,154 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="2">
-        <v>38492998</v>
-      </c>
-      <c r="M10" s="2">
-        <v>2709553</v>
-      </c>
-      <c r="N10"/>
+      <c r="A10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11">
+        <v>38492783</v>
+      </c>
+      <c r="M10" s="11">
+        <v>3719690</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="2">
-        <v>38493029</v>
-      </c>
-      <c r="M11" s="2">
-        <v>2709553</v>
-      </c>
-      <c r="N11"/>
+      <c r="A11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11">
+        <v>38492809</v>
+      </c>
+      <c r="M11" s="11">
+        <v>3719690</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11">
-        <v>38492783</v>
-      </c>
-      <c r="M12" s="11">
-        <v>3719690</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="2">
+        <v>38491524</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2622938</v>
+      </c>
+      <c r="N12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11">
-        <v>38492809</v>
-      </c>
-      <c r="M13" s="11">
-        <v>3719690</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="2">
+        <v>38491434</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2622938</v>
+      </c>
+      <c r="N13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+        <v>57</v>
+      </c>
       <c r="L14" s="2">
-        <v>38491524</v>
+        <v>38491476</v>
       </c>
       <c r="M14" s="2">
         <v>2622938</v>
@@ -1591,24 +1594,22 @@
         <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="2">
-        <v>38491434</v>
+        <v>38491565</v>
       </c>
       <c r="M15" s="2">
         <v>2622938</v>
@@ -1620,22 +1621,29 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="2">
-        <v>38491476</v>
+        <v>38491741</v>
       </c>
       <c r="M16" s="2">
         <v>2622938</v>
@@ -1647,25 +1655,29 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="2">
-        <v>38491565</v>
+        <v>38491631</v>
       </c>
       <c r="M17" s="2">
         <v>2622938</v>
@@ -1677,29 +1689,29 @@
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2">
-        <v>38491741</v>
+        <v>38491681</v>
       </c>
       <c r="M18" s="2">
         <v>2622938</v>
@@ -1711,63 +1723,51 @@
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="L19" s="2">
-        <v>38491631</v>
+        <v>38491356</v>
       </c>
       <c r="M19" s="2">
         <v>2622938</v>
       </c>
-      <c r="N19"/>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="2">
-        <v>38491681</v>
+        <v>38491813</v>
       </c>
       <c r="M20" s="2">
         <v>2622938</v>
@@ -1775,345 +1775,343 @@
       <c r="N20"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="2">
-        <v>38491356</v>
-      </c>
-      <c r="M21" s="2">
-        <v>2622938</v>
-      </c>
-      <c r="N21" t="s">
-        <v>78</v>
-      </c>
+      <c r="A21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11">
+        <v>38457783</v>
+      </c>
+      <c r="M21" s="11">
+        <v>3084223</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="2">
-        <v>38491813</v>
-      </c>
-      <c r="M22" s="2">
-        <v>2622938</v>
-      </c>
-      <c r="N22"/>
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11">
+        <v>38457824</v>
+      </c>
+      <c r="M22" s="11">
+        <v>3084223</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11">
-        <v>38457783</v>
-      </c>
-      <c r="M23" s="11">
-        <v>3084223</v>
-      </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="2">
+        <v>38487725</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2726087</v>
+      </c>
+      <c r="N23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11">
-        <v>38457824</v>
-      </c>
-      <c r="M24" s="11">
-        <v>3084223</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="2">
+        <v>38487770</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2726087</v>
+      </c>
+      <c r="N24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11">
+        <v>38456865</v>
+      </c>
+      <c r="M25" s="11">
+        <v>2672104</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11">
+        <v>38456899</v>
+      </c>
+      <c r="M26" s="11">
+        <v>2672104</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="2">
+        <v>38457941</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2726088</v>
+      </c>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="2">
+        <v>38457984</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2726088</v>
+      </c>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13">
+        <v>38454329</v>
+      </c>
+      <c r="M29" s="13">
+        <v>3169165</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="2">
-        <v>38487725</v>
-      </c>
-      <c r="M25" s="2">
-        <v>2726087</v>
-      </c>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13">
+        <v>38454417</v>
+      </c>
+      <c r="M30" s="13">
+        <v>3169165</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O30" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="2">
-        <v>38487770</v>
-      </c>
-      <c r="M26" s="2">
-        <v>2726087</v>
-      </c>
-      <c r="N26"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11">
-        <v>38456865</v>
-      </c>
-      <c r="M27" s="11">
-        <v>2672104</v>
-      </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11">
-        <v>38456899</v>
-      </c>
-      <c r="M28" s="11">
-        <v>2672104</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="2">
-        <v>38457941</v>
-      </c>
-      <c r="M29" s="2">
-        <v>2726088</v>
-      </c>
-      <c r="N29"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="2">
-        <v>38457984</v>
-      </c>
-      <c r="M30" s="2">
-        <v>2726088</v>
-      </c>
-      <c r="N30"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13">
-        <v>38454329</v>
-      </c>
-      <c r="M31" s="13">
-        <v>3169165</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="2">
+        <v>38495239</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3770774</v>
+      </c>
+      <c r="N31"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13">
-        <v>38454417</v>
-      </c>
-      <c r="M32" s="13">
-        <v>3169165</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="2">
+        <v>38495273</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3770774</v>
+      </c>
+      <c r="N32"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
       </c>
       <c r="L33" s="2">
-        <v>38495239</v>
+        <v>38495325</v>
       </c>
       <c r="M33" s="2">
         <v>3770774</v>
@@ -2121,246 +2119,250 @@
       <c r="N33"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" t="s">
-        <v>89</v>
-      </c>
-      <c r="L34" s="2">
-        <v>38495273</v>
-      </c>
-      <c r="M34" s="2">
-        <v>3770774</v>
-      </c>
-      <c r="N34"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11">
+        <v>38490333</v>
+      </c>
+      <c r="M34" s="11">
+        <v>2672103</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="A35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G35" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" s="2">
-        <v>38495325</v>
-      </c>
-      <c r="M35" s="2">
-        <v>3770774</v>
-      </c>
-      <c r="N35"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11">
+        <v>38490407</v>
+      </c>
+      <c r="M35" s="11">
+        <v>2672103</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="11">
-        <v>38490333</v>
-      </c>
-      <c r="M36" s="11">
-        <v>2672103</v>
-      </c>
-      <c r="N36" s="10" t="s">
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" s="2">
+        <v>2739510</v>
+      </c>
+      <c r="N36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="2">
+        <v>38490553</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2739510</v>
+      </c>
+      <c r="N37" t="s">
         <v>49</v>
       </c>
-      <c r="O36" s="10"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11">
-        <v>38490407</v>
-      </c>
-      <c r="M37" s="11">
-        <v>2672103</v>
-      </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" s="2">
-        <v>2739510</v>
-      </c>
-      <c r="N38" t="s">
-        <v>50</v>
+      <c r="A38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11">
+        <v>38493653</v>
+      </c>
+      <c r="M38" s="11">
+        <v>2709551</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="L39" s="2">
-        <v>38490553</v>
-      </c>
-      <c r="M39" s="2">
-        <v>2739510</v>
-      </c>
-      <c r="N39" t="s">
-        <v>52</v>
+      <c r="A39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11">
+        <v>38493686</v>
+      </c>
+      <c r="M39" s="11">
+        <v>2709551</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="11">
-        <v>38493653</v>
-      </c>
-      <c r="M40" s="11">
-        <v>2709551</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="A40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6">
+        <v>2726091</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11">
-        <v>38493686</v>
-      </c>
-      <c r="M41" s="11">
-        <v>2709551</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="A41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6">
+        <v>2726091</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>72</v>
+        <v>33</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2373,68 +2375,80 @@
         <v>2726091</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O42" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6">
-        <v>2726091</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O43" s="4"/>
+      <c r="A43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11">
+        <v>38495798</v>
+      </c>
+      <c r="M43" s="11">
+        <v>3446638</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6">
-        <v>2726091</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>116</v>
+      <c r="A44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11">
+        <v>38495968</v>
+      </c>
+      <c r="M44" s="11">
+        <v>3446638</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -2442,16 +2456,16 @@
         <v>21</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -2460,16 +2474,16 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="11">
-        <v>38495798</v>
+        <v>38496432</v>
       </c>
       <c r="M45" s="11">
         <v>3446638</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -2477,16 +2491,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -2495,16 +2509,16 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="11">
-        <v>38495968</v>
+        <v>38496605</v>
       </c>
       <c r="M46" s="11">
         <v>3446638</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -2512,16 +2526,16 @@
         <v>21</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -2530,313 +2544,304 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="11">
-        <v>38496432</v>
+        <v>38496729</v>
       </c>
       <c r="M47" s="11">
         <v>3446638</v>
       </c>
-      <c r="N47" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="N47" s="10"/>
       <c r="O47" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="2">
+        <v>38455890</v>
+      </c>
+      <c r="M48" s="2">
+        <v>2726092</v>
+      </c>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="2">
+        <v>38455977</v>
+      </c>
+      <c r="M49" s="2">
+        <v>2726092</v>
+      </c>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="C50" s="10"/>
+      <c r="D50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="11">
+        <v>38457090</v>
+      </c>
+      <c r="M50" s="11">
+        <v>3442662</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="11">
+        <v>38457131</v>
+      </c>
+      <c r="M51" s="11">
+        <v>3442662</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="2">
+        <v>38457435</v>
+      </c>
+      <c r="M52" s="2">
+        <v>2739495</v>
+      </c>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="2">
+        <v>38457476</v>
+      </c>
+      <c r="M53" s="2">
+        <v>2739495</v>
+      </c>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="11">
+        <v>38502065</v>
+      </c>
+      <c r="M54" s="11">
+        <v>3570008</v>
+      </c>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="11">
-        <v>38496605</v>
-      </c>
-      <c r="M48" s="11">
-        <v>3446638</v>
-      </c>
-      <c r="N48" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="10" t="s">
+      <c r="F55" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11">
-        <v>38496729</v>
-      </c>
-      <c r="M49" s="11">
-        <v>3446638</v>
-      </c>
-      <c r="N49" s="10"/>
-      <c r="O49" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" t="s">
-        <v>33</v>
-      </c>
-      <c r="L50" s="2">
-        <v>38455890</v>
-      </c>
-      <c r="M50" s="2">
-        <v>2726092</v>
-      </c>
-      <c r="N50"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="L51" s="2">
-        <v>38455977</v>
-      </c>
-      <c r="M51" s="2">
-        <v>2726092</v>
-      </c>
-      <c r="N51"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="11">
-        <v>38457090</v>
-      </c>
-      <c r="M52" s="11">
-        <v>3442662</v>
-      </c>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11">
-        <v>38457131</v>
-      </c>
-      <c r="M53" s="11">
-        <v>3442662</v>
-      </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" t="s">
-        <v>33</v>
-      </c>
-      <c r="L54" s="2">
-        <v>38457435</v>
-      </c>
-      <c r="M54" s="2">
-        <v>2739495</v>
-      </c>
-      <c r="N54"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="L55" s="2">
-        <v>38457476</v>
-      </c>
-      <c r="M55" s="2">
-        <v>2739495</v>
-      </c>
-      <c r="N55"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="11">
+        <v>38502374</v>
+      </c>
+      <c r="M55" s="11">
+        <v>3570008</v>
+      </c>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="A56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="11">
-        <v>38502065</v>
-      </c>
-      <c r="M56" s="11">
-        <v>3570008</v>
-      </c>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
+      <c r="L56" s="2">
+        <v>38493910</v>
+      </c>
+      <c r="M56" s="2">
+        <v>3498029</v>
+      </c>
+      <c r="N56"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="11">
-        <v>38502374</v>
-      </c>
-      <c r="M57" s="11">
-        <v>3570008</v>
-      </c>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
+      <c r="A57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="2">
+        <v>38494005</v>
+      </c>
+      <c r="M57" s="2">
+        <v>3498029</v>
+      </c>
+      <c r="N57"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="L58" s="2">
-        <v>38493910</v>
+        <v>38493945</v>
       </c>
       <c r="M58" s="2">
         <v>3498029</v>
@@ -2844,253 +2849,254 @@
       <c r="N58"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="2">
-        <v>38494005</v>
-      </c>
-      <c r="M59" s="2">
-        <v>3498029</v>
-      </c>
-      <c r="N59"/>
+      <c r="A59" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O59" s="10"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L60" s="2">
-        <v>38493945</v>
-      </c>
-      <c r="M60" s="2">
-        <v>3498029</v>
-      </c>
-      <c r="N60"/>
+      <c r="A60" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O60" s="10"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+        <v>155</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O61" s="10"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="O62" s="10"/>
+      <c r="A62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="2">
+        <v>38488088</v>
+      </c>
+      <c r="M62" s="2">
+        <v>3324386</v>
+      </c>
+      <c r="N62"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="O63" s="10"/>
+      <c r="A63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="L63" s="2">
+        <v>38488121</v>
+      </c>
+      <c r="M63" s="2">
+        <v>3324386</v>
+      </c>
+      <c r="N63"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="L64" s="2">
-        <v>38488088</v>
-      </c>
-      <c r="M64" s="2">
-        <v>3324386</v>
-      </c>
-      <c r="N64"/>
+      <c r="A64" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="11">
+        <v>39296621</v>
+      </c>
+      <c r="M64" s="11">
+        <v>2401533</v>
+      </c>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" t="s">
-        <v>48</v>
-      </c>
-      <c r="L65" s="2">
-        <v>38488121</v>
-      </c>
-      <c r="M65" s="2">
-        <v>3324386</v>
-      </c>
-      <c r="N65"/>
+      <c r="A65" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="11">
+        <v>39296642</v>
+      </c>
+      <c r="M65" s="11">
+        <v>2401533</v>
+      </c>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="11">
-        <v>39296621</v>
-      </c>
-      <c r="M66" s="11">
-        <v>2401533</v>
-      </c>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
+      <c r="A66" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="2">
+        <v>38422496</v>
+      </c>
+      <c r="M66" s="2">
+        <v>2739512</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D67" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -3099,69 +3105,79 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="11">
-        <v>39296642</v>
+        <v>38507716</v>
       </c>
       <c r="M67" s="11">
-        <v>2401533</v>
+        <v>2671646</v>
       </c>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="16">
-        <v>38422496</v>
-      </c>
-      <c r="M68" s="16">
-        <v>2739512</v>
-      </c>
-      <c r="N68" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O68" s="15"/>
+      <c r="A68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="11">
+        <v>38507868</v>
+      </c>
+      <c r="M68" s="11">
+        <v>2671646</v>
+      </c>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="11">
-        <v>38507716</v>
+        <v>38508121</v>
       </c>
       <c r="M69" s="11">
         <v>2671646</v>
@@ -3174,29 +3190,31 @@
         <v>18</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H70" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
       <c r="L70" s="11">
-        <v>38507868</v>
+        <v>38508566</v>
       </c>
       <c r="M70" s="11">
         <v>2671646</v>
@@ -3209,31 +3227,33 @@
         <v>18</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I71" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
       <c r="L71" s="11">
-        <v>38508121</v>
+        <v>38509129</v>
       </c>
       <c r="M71" s="11">
         <v>2671646</v>
@@ -3242,255 +3262,147 @@
       <c r="O71" s="10"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="11">
-        <v>38508566</v>
-      </c>
-      <c r="M72" s="11">
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>181</v>
+      </c>
+      <c r="L72" s="2">
+        <v>38509297</v>
+      </c>
+      <c r="M72" s="2">
         <v>2671646</v>
       </c>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
+      <c r="N72"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F73" s="10" t="s">
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
         <v>182</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="11">
-        <v>38509129</v>
-      </c>
-      <c r="M73" s="11">
+      <c r="L73" s="2">
+        <v>38509325</v>
+      </c>
+      <c r="M73" s="2">
         <v>2671646</v>
       </c>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
+      <c r="N73"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
         <v>34</v>
       </c>
-      <c r="E74" t="s">
-        <v>185</v>
-      </c>
       <c r="L74" s="2">
-        <v>38509297</v>
+        <v>38456369</v>
       </c>
       <c r="M74" s="2">
-        <v>2671646</v>
+        <v>2709547</v>
       </c>
       <c r="N74"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="L75" s="2">
-        <v>38509325</v>
+        <v>38456394</v>
       </c>
       <c r="M75" s="2">
-        <v>2671646</v>
+        <v>2709547</v>
       </c>
       <c r="N75"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" s="2">
+        <v>38456301</v>
+      </c>
+      <c r="M76" s="2">
+        <v>2709547</v>
+      </c>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="16">
-        <v>38456369</v>
-      </c>
-      <c r="M76" s="16">
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>37</v>
+      </c>
+      <c r="L77" s="2">
+        <v>38456341</v>
+      </c>
+      <c r="M77" s="2">
         <v>2709547</v>
       </c>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="16">
-        <v>38456394</v>
-      </c>
-      <c r="M77" s="16">
-        <v>2709547</v>
-      </c>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="16">
-        <v>38456301</v>
-      </c>
-      <c r="M78" s="16">
-        <v>2709547</v>
-      </c>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="16">
-        <v>38456341</v>
-      </c>
-      <c r="M79" s="16">
-        <v>2709547</v>
-      </c>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4"/>
+      <c r="N77"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="14"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O84">
-    <sortCondition ref="A2:A84"/>
-    <sortCondition ref="B2:B84"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O82">
+    <sortCondition ref="A2:A82"/>
+    <sortCondition ref="B2:B82"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Muting Rules.xlsx
+++ b/Muting Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeversmeyer\Python\2w-patching-daily-muting-check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C114BF70-AEDE-479A-BC6F-A70B4A3C310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C0E2C0-F21C-429F-A418-B177C0278621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38910" yWindow="890" windowWidth="36820" windowHeight="19540" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
+    <workbookView xWindow="39660" yWindow="1010" windowWidth="36820" windowHeight="19540" xr2:uid="{D6AE10F8-5FA4-4DCC-834E-28D78D72E9DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="198">
   <si>
     <t>Environment</t>
   </si>
@@ -630,9 +630,6 @@
   </si>
   <si>
     <t>ssm_Pre-Prod</t>
-  </si>
-  <si>
-    <t>Prod All</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344475A-C7FB-4B36-9EFD-5513E556E893}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2200,7 +2197,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
